--- a/cw ismir2016/experiments/experiment_records.xlsx
+++ b/cw ismir2016/experiments/experiment_records.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/GTCMT/cw_paper/cw ismir2016/experiments/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-37580" yWindow="-2920" windowWidth="21680" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21680" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -322,7 +330,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -330,7 +338,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -339,14 +347,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -355,7 +363,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -364,7 +372,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -372,7 +380,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF008000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -899,13 +907,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -916,429 +918,440 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="411">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="284" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="286" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="288" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="290" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="292" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="294" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="296" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="298" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="328" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="330" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="332" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="334" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="336" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="338" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="340" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="342" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="344" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="346" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="348" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="350" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="352" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="354" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="356" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="358" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="360" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="362" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="364" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="366" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="368" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="370" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="372" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="374" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="376" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="378" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="380" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="382" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="384" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="386" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="388" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="390" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="392" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="394" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="396" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="398" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="400" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="402" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="404" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="406" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="408" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="410" builtinId="9" hidden="1"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="227" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="229" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="231" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="233" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="235" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="237" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="239" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="241" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="243" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="245" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="247" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="249" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="251" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="253" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="255" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="257" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="259" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="261" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="263" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="265" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="267" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="269" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="271" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="273" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="275" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="277" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="279" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="281" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="283" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="285" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="287" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="289" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="291" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="293" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="295" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="297" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="299" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="301" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="303" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="305" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="307" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="309" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="311" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="313" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="315" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="317" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="319" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="321" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="323" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="325" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="327" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="329" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="331" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="333" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="335" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="337" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="339" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="341" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="343" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="345" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="347" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="349" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="351" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="353" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="355" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="357" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="359" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="361" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="363" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="365" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="367" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="369" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="371" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="373" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="375" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="377" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="379" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="381" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="383" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="385" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="387" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="389" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="391" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="393" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="395" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="397" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="399" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="401" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="403" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="405" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="407" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1546,16 +1559,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2085620872"/>
-        <c:axId val="2085905016"/>
+        <c:axId val="2144701504"/>
+        <c:axId val="2144704800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2085620872"/>
+        <c:axId val="2144701504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1564,7 +1578,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2085905016"/>
+        <c:crossAx val="2144704800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1572,7 +1586,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2085905016"/>
+        <c:axId val="2144704800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -1604,7 +1618,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085620872"/>
+        <c:crossAx val="2144701504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1625,7 +1639,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1639,7 +1653,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1819,16 +1833,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2116638040"/>
-        <c:axId val="2117017496"/>
+        <c:axId val="2141715824"/>
+        <c:axId val="2141718928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2116638040"/>
+        <c:axId val="2141715824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1837,7 +1852,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2117017496"/>
+        <c:crossAx val="2141718928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1845,7 +1860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117017496"/>
+        <c:axId val="2141718928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80.0"/>
@@ -1877,7 +1892,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116638040"/>
+        <c:crossAx val="2141715824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1898,7 +1913,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2298,11 +2313,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="14" max="14" width="6.5" customWidth="1"/>
     <col min="15" max="15" width="6.1640625" customWidth="1"/>
@@ -2310,7 +2325,7 @@
     <col min="17" max="17" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2318,7 +2333,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2326,7 +2341,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -2334,7 +2349,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2363,7 +2378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2392,7 +2407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="7" customFormat="1">
+    <row r="6" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -2421,7 +2436,7 @@
         <v>0.96479999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -2450,7 +2465,7 @@
         <v>0.98960000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
@@ -2479,7 +2494,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -2508,7 +2523,7 @@
         <v>0.95140000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -2537,7 +2552,7 @@
         <v>0.98089999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>50</v>
       </c>
@@ -2563,7 +2578,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -2571,7 +2586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2579,7 +2594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -2587,7 +2602,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -2616,7 +2631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2645,7 +2660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="7" customFormat="1">
+    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>45</v>
       </c>
@@ -2674,7 +2689,7 @@
         <v>0.76370000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -2703,7 +2718,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
@@ -2732,7 +2747,7 @@
         <v>0.71560000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
@@ -2761,7 +2776,7 @@
         <v>0.80769999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
@@ -2790,7 +2805,7 @@
         <v>0.85109999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="7" customFormat="1">
+    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>46</v>
       </c>
@@ -2827,7 +2842,7 @@
         <v>0.79146666666666654</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>31</v>
       </c>
@@ -2844,12 +2859,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2857,7 +2872,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -2865,22 +2880,22 @@
         <v>0.93820000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -2903,7 +2918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2926,7 +2941,7 @@
         <v>0.43409999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -2949,7 +2964,7 @@
         <v>0.35820000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="7" customFormat="1">
+    <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>45</v>
       </c>
@@ -2972,7 +2987,7 @@
         <v>0.3629</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="5" customFormat="1">
+    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>42</v>
       </c>
@@ -2995,7 +3010,7 @@
         <v>0.35820000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -3018,7 +3033,7 @@
         <v>0.30280000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -3041,7 +3056,7 @@
         <v>0.34620000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -3064,7 +3079,7 @@
         <v>0.78720000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="7" customFormat="1">
+    <row r="38" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>46</v>
       </c>
@@ -3087,7 +3102,7 @@
         <v>0.4486</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>41</v>
       </c>
@@ -3101,12 +3116,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -3114,7 +3129,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -3122,22 +3137,22 @@
         <v>0.93820000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9" t="s">
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -3160,7 +3175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -3183,7 +3198,7 @@
         <v>0.4945</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -3206,7 +3221,7 @@
         <v>7.46E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="7" customFormat="1">
+    <row r="48" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>45</v>
       </c>
@@ -3229,7 +3244,7 @@
         <v>0.10059999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="5" customFormat="1">
+    <row r="49" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>42</v>
       </c>
@@ -3252,7 +3267,7 @@
         <v>7.46E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>33</v>
       </c>
@@ -3265,7 +3280,7 @@
       <c r="D50" s="5">
         <v>0.57799999999999996</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="9">
         <v>0.74309999999999998</v>
       </c>
       <c r="F50" s="5">
@@ -3275,7 +3290,7 @@
         <v>0.48620000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>34</v>
       </c>
@@ -3288,7 +3303,7 @@
       <c r="D51" s="5">
         <v>0.34620000000000001</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="9">
         <v>0.15379999999999999</v>
       </c>
       <c r="F51" s="5">
@@ -3298,7 +3313,7 @@
         <v>7.6899999999999996E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>35</v>
       </c>
@@ -3311,7 +3326,7 @@
       <c r="D52" s="5">
         <v>0.40429999999999999</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="9">
         <v>0.70209999999999995</v>
       </c>
       <c r="F52" s="5">
@@ -3321,7 +3336,7 @@
         <v>0.74470000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="7" customFormat="1">
+    <row r="53" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>46</v>
       </c>
@@ -3344,7 +3359,7 @@
         <v>0.34560000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>41</v>
       </c>
@@ -3352,317 +3367,317 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="I57" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="H58" t="s">
         <v>71</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I58" s="10">
         <v>159</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J58" s="11">
         <v>1737</v>
       </c>
-      <c r="K58" s="13">
+      <c r="K58" s="11">
         <v>104</v>
       </c>
-      <c r="L58" s="14">
+      <c r="L58" s="12">
         <v>761</v>
       </c>
       <c r="M58">
         <f xml:space="preserve"> SUM(I58:L58)</f>
         <v>2761</v>
       </c>
-      <c r="N58" s="12">
+      <c r="N58" s="10">
         <f>I58/M58</f>
         <v>5.7587830496197027E-2</v>
       </c>
-      <c r="O58" s="13">
+      <c r="O58" s="11">
         <f xml:space="preserve"> J58/M58</f>
         <v>0.62911988409996378</v>
       </c>
-      <c r="P58" s="13">
+      <c r="P58" s="11">
         <f xml:space="preserve"> K58/M58</f>
         <v>3.766751177109743E-2</v>
       </c>
-      <c r="Q58" s="14">
+      <c r="Q58" s="12">
         <f xml:space="preserve"> L58/M58</f>
         <v>0.27562477363274174</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="H59">
         <f>(I58 +J59+K60+L61)/SUM(M58:M61)</f>
         <v>9.3781855249745152E-2</v>
       </c>
-      <c r="I59" s="15">
+      <c r="I59" s="13">
         <v>6</v>
       </c>
-      <c r="J59" s="16">
+      <c r="J59" s="14">
         <v>81</v>
       </c>
-      <c r="K59" s="16">
+      <c r="K59" s="14">
         <v>4</v>
       </c>
-      <c r="L59" s="17">
+      <c r="L59" s="15">
         <v>18</v>
       </c>
       <c r="M59">
         <f t="shared" ref="M59:M61" si="1" xml:space="preserve"> SUM(I59:L59)</f>
         <v>109</v>
       </c>
-      <c r="N59" s="15">
+      <c r="N59" s="13">
         <f t="shared" ref="N59:N61" si="2">I59/M59</f>
         <v>5.5045871559633031E-2</v>
       </c>
-      <c r="O59" s="16">
+      <c r="O59" s="14">
         <f t="shared" ref="O59:O61" si="3" xml:space="preserve"> J59/M59</f>
         <v>0.74311926605504586</v>
       </c>
-      <c r="P59" s="16">
+      <c r="P59" s="14">
         <f t="shared" ref="P59:P61" si="4" xml:space="preserve"> K59/M59</f>
         <v>3.669724770642202E-2</v>
       </c>
-      <c r="Q59" s="17">
+      <c r="Q59" s="15">
         <f t="shared" ref="Q59:Q61" si="5" xml:space="preserve"> L59/M59</f>
         <v>0.16513761467889909</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="H60" t="s">
         <v>72</v>
       </c>
-      <c r="I60" s="15">
+      <c r="I60" s="13">
         <v>0</v>
       </c>
-      <c r="J60" s="16">
+      <c r="J60" s="14">
         <v>16</v>
       </c>
-      <c r="K60" s="16">
+      <c r="K60" s="14">
         <v>3</v>
       </c>
-      <c r="L60" s="17">
+      <c r="L60" s="15">
         <v>7</v>
       </c>
       <c r="M60">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="N60" s="15">
+      <c r="N60" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O60" s="16">
+      <c r="O60" s="14">
         <f t="shared" si="3"/>
         <v>0.61538461538461542</v>
       </c>
-      <c r="P60" s="16">
+      <c r="P60" s="14">
         <f t="shared" si="4"/>
         <v>0.11538461538461539</v>
       </c>
-      <c r="Q60" s="17">
+      <c r="Q60" s="15">
         <f t="shared" si="5"/>
         <v>0.26923076923076922</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="H61">
         <f xml:space="preserve"> AVERAGE(N58,O59,P60,Q61)</f>
         <v>0.40455484287758159</v>
       </c>
-      <c r="I61" s="18">
+      <c r="I61" s="16">
         <v>1</v>
       </c>
-      <c r="J61" s="19">
+      <c r="J61" s="17">
         <v>4</v>
       </c>
-      <c r="K61" s="19">
+      <c r="K61" s="17">
         <v>9</v>
       </c>
-      <c r="L61" s="20">
+      <c r="L61" s="18">
         <v>33</v>
       </c>
       <c r="M61">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="N61" s="18">
+      <c r="N61" s="16">
         <f t="shared" si="2"/>
         <v>2.1276595744680851E-2</v>
       </c>
-      <c r="O61" s="19">
+      <c r="O61" s="17">
         <f t="shared" si="3"/>
         <v>8.5106382978723402E-2</v>
       </c>
-      <c r="P61" s="19">
+      <c r="P61" s="17">
         <f t="shared" si="4"/>
         <v>0.19148936170212766</v>
       </c>
-      <c r="Q61" s="20">
+      <c r="Q61" s="18">
         <f t="shared" si="5"/>
         <v>0.7021276595744681</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="I63" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="H64" t="s">
         <v>71</v>
       </c>
-      <c r="I64" s="12">
+      <c r="I64" s="10">
         <v>798</v>
       </c>
-      <c r="J64" s="13">
+      <c r="J64" s="11">
         <v>1070</v>
       </c>
-      <c r="K64" s="13">
+      <c r="K64" s="11">
         <v>158</v>
       </c>
-      <c r="L64" s="14">
+      <c r="L64" s="12">
         <v>735</v>
       </c>
       <c r="M64">
         <f xml:space="preserve"> SUM(I64:L64)</f>
         <v>2761</v>
       </c>
-      <c r="N64" s="12">
+      <c r="N64" s="10">
         <f>I64/M64</f>
         <v>0.28902571532053606</v>
       </c>
-      <c r="O64" s="13">
+      <c r="O64" s="11">
         <f xml:space="preserve"> J64/M64</f>
         <v>0.38754074610648315</v>
       </c>
-      <c r="P64" s="13">
+      <c r="P64" s="11">
         <f xml:space="preserve"> K64/M64</f>
         <v>5.7225642883013399E-2</v>
       </c>
-      <c r="Q64" s="14">
+      <c r="Q64" s="12">
         <f xml:space="preserve"> L64/M64</f>
         <v>0.26620789568996739</v>
       </c>
     </row>
-    <row r="65" spans="8:17">
+    <row r="65" spans="8:17" x14ac:dyDescent="0.2">
       <c r="H65">
         <f>(I64 +J65+K66+L67)/SUM(M64:M67)</f>
         <v>0.30411145090044173</v>
       </c>
-      <c r="I65" s="15">
+      <c r="I65" s="13">
         <v>9</v>
       </c>
-      <c r="J65" s="21">
+      <c r="J65" s="19">
         <v>72</v>
       </c>
-      <c r="K65" s="21">
+      <c r="K65" s="19">
         <v>13</v>
       </c>
-      <c r="L65" s="17">
+      <c r="L65" s="15">
         <v>15</v>
       </c>
       <c r="M65">
         <f t="shared" ref="M65:M67" si="6" xml:space="preserve"> SUM(I65:L65)</f>
         <v>109</v>
       </c>
-      <c r="N65" s="15">
+      <c r="N65" s="13">
         <f t="shared" ref="N65:N67" si="7">I65/M65</f>
         <v>8.2568807339449546E-2</v>
       </c>
-      <c r="O65" s="16">
+      <c r="O65" s="14">
         <f t="shared" ref="O65:O67" si="8" xml:space="preserve"> J65/M65</f>
         <v>0.66055045871559637</v>
       </c>
-      <c r="P65" s="16">
+      <c r="P65" s="14">
         <f t="shared" ref="P65:P67" si="9" xml:space="preserve"> K65/M65</f>
         <v>0.11926605504587157</v>
       </c>
-      <c r="Q65" s="17">
+      <c r="Q65" s="15">
         <f t="shared" ref="Q65:Q67" si="10" xml:space="preserve"> L65/M65</f>
         <v>0.13761467889908258</v>
       </c>
     </row>
-    <row r="66" spans="8:17">
+    <row r="66" spans="8:17" x14ac:dyDescent="0.2">
       <c r="H66" t="s">
         <v>72</v>
       </c>
-      <c r="I66" s="15">
+      <c r="I66" s="13">
         <v>1</v>
       </c>
-      <c r="J66" s="21">
+      <c r="J66" s="19">
         <v>14</v>
       </c>
-      <c r="K66" s="21">
+      <c r="K66" s="19">
         <v>5</v>
       </c>
-      <c r="L66" s="17">
+      <c r="L66" s="15">
         <v>6</v>
       </c>
       <c r="M66">
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="N66" s="15">
+      <c r="N66" s="13">
         <f t="shared" si="7"/>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="O66" s="16">
+      <c r="O66" s="14">
         <f t="shared" si="8"/>
         <v>0.53846153846153844</v>
       </c>
-      <c r="P66" s="16">
+      <c r="P66" s="14">
         <f t="shared" si="9"/>
         <v>0.19230769230769232</v>
       </c>
-      <c r="Q66" s="17">
+      <c r="Q66" s="15">
         <f t="shared" si="10"/>
         <v>0.23076923076923078</v>
       </c>
     </row>
-    <row r="67" spans="8:17">
+    <row r="67" spans="8:17" x14ac:dyDescent="0.2">
       <c r="H67">
         <f xml:space="preserve"> AVERAGE(N64,O65,P66,Q67)</f>
         <v>0.39185394530936041</v>
       </c>
-      <c r="I67" s="18">
+      <c r="I67" s="16">
         <v>22</v>
       </c>
-      <c r="J67" s="19">
+      <c r="J67" s="17">
         <v>3</v>
       </c>
-      <c r="K67" s="19">
+      <c r="K67" s="17">
         <v>2</v>
       </c>
-      <c r="L67" s="20">
+      <c r="L67" s="18">
         <v>20</v>
       </c>
       <c r="M67">
         <f t="shared" si="6"/>
         <v>47</v>
       </c>
-      <c r="N67" s="18">
+      <c r="N67" s="16">
         <f t="shared" si="7"/>
         <v>0.46808510638297873</v>
       </c>
-      <c r="O67" s="19">
+      <c r="O67" s="17">
         <f t="shared" si="8"/>
         <v>6.3829787234042548E-2</v>
       </c>
-      <c r="P67" s="19">
+      <c r="P67" s="17">
         <f t="shared" si="9"/>
         <v>4.2553191489361701E-2</v>
       </c>
-      <c r="Q67" s="20">
+      <c r="Q67" s="18">
         <f t="shared" si="10"/>
         <v>0.42553191489361702</v>
       </c>
     </row>
-    <row r="68" spans="8:17">
+    <row r="68" spans="8:17" x14ac:dyDescent="0.2">
       <c r="M68">
         <f>SUM(M64:M67)</f>
         <v>2943</v>
@@ -3678,11 +3693,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3690,16 +3700,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>68</v>
       </c>
@@ -3731,7 +3741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -3763,7 +3773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>0.80900000000000005</v>
       </c>
@@ -3795,7 +3805,7 @@
         <v>9.5100000000000004E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.97219999999999995</v>
       </c>
@@ -3827,7 +3837,7 @@
         <v>5.8700000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.84379999999999999</v>
       </c>
@@ -3855,11 +3865,11 @@
       <c r="L5" s="1">
         <v>0.66969999999999996</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="9">
         <v>0.74309999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.70309999999999995</v>
       </c>
@@ -3887,11 +3897,11 @@
       <c r="L6" s="1">
         <v>0.1923</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="9">
         <v>0.15379999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.71879999999999999</v>
       </c>
@@ -3919,11 +3929,11 @@
       <c r="L7" s="1">
         <v>0.44679999999999997</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="9">
         <v>0.70209999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E8" s="7">
         <f>AVERAGE(E5:E7)</f>
         <v>0.60816666666666663</v>
@@ -3949,16 +3959,16 @@
         <v>0.41439999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D11" s="3"/>
     </row>
-    <row r="13" spans="1:13">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="18" spans="1:4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>59</v>
       </c>
@@ -3966,8 +3976,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
         <v>61</v>
       </c>
       <c r="B19" t="s">
@@ -3980,8 +3990,8 @@
         <v>80.900000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="11"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="21"/>
       <c r="B20" t="s">
         <v>66</v>
       </c>
@@ -3992,8 +4002,8 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="11"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="21"/>
       <c r="B21" t="s">
         <v>67</v>
       </c>
@@ -4004,8 +4014,8 @@
         <v>96.8</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
         <v>63</v>
       </c>
       <c r="B23" t="s">
@@ -4018,8 +4028,8 @@
         <v>60.8</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="11"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
       <c r="B24" t="s">
         <v>66</v>
       </c>
@@ -4030,8 +4040,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="11"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
       <c r="B25" t="s">
         <v>67</v>
       </c>
@@ -4042,7 +4052,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>59</v>
       </c>
@@ -4050,8 +4060,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
         <v>62</v>
       </c>
       <c r="B30" t="s">
@@ -4064,8 +4074,8 @@
         <v>61.6</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="11"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
       <c r="B31" t="s">
         <v>66</v>
       </c>
@@ -4076,8 +4086,8 @@
         <v>64.599999999999994</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
         <v>64</v>
       </c>
       <c r="B33" t="s">
@@ -4090,8 +4100,8 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="11"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
       <c r="B34" t="s">
         <v>66</v>
       </c>
@@ -4115,10 +4125,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>